--- a/system/results/ML algo.xlsx
+++ b/system/results/ML algo.xlsx
@@ -2,13 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="ML algo" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="papers" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,11 +22,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="220">
   <si>
     <t xml:space="preserve">Algorithm</t>
   </si>
   <si>
+    <t xml:space="preserve">DL Type</t>
+  </si>
+  <si>
     <t xml:space="preserve">Key Features</t>
   </si>
   <si>
@@ -40,6 +45,9 @@
     <t xml:space="preserve">Linear Regression</t>
   </si>
   <si>
+    <t xml:space="preserve">Supervised Learning</t>
+  </si>
+  <si>
     <t xml:space="preserve">Simple linear approach, assumes a linear relationship between input and output</t>
   </si>
   <si>
@@ -61,7 +69,7 @@
     <t xml:space="preserve">Simple, efficient for binary and multi-class classification, easy to interpret probabilities</t>
   </si>
   <si>
-    <t xml:space="preserve">Assumes linearity between input features and log odds, sensitive to outliers</t>
+    <t xml:space="preserve">Sensitive to outliers, handles linear boundaries</t>
   </si>
   <si>
     <t xml:space="preserve">Credit scoring, medical diagnosis</t>
@@ -76,7 +84,7 @@
     <t xml:space="preserve">Easy to visualize, interpretable, handles both numerical and categorical data</t>
   </si>
   <si>
-    <t xml:space="preserve">Prone to overfitting, can create complex trees that do not generalize well</t>
+    <t xml:space="preserve">Complex trees that do not generalize well</t>
   </si>
   <si>
     <t xml:space="preserve">Customer segmentation, risk analysis</t>
@@ -145,7 +153,7 @@
     <t xml:space="preserve">Gradient Boosting</t>
   </si>
   <si>
-    <t xml:space="preserve">Ensemble method that builds models sequentially to correct errors of previous models</t>
+    <t xml:space="preserve">Sequentially to correct errors of previous models</t>
   </si>
   <si>
     <t xml:space="preserve">High accuracy, robust to overfitting, works well with a variety of loss functions</t>
@@ -172,9 +180,87 @@
     <t xml:space="preserve">Large-scale data analysis, competition winning</t>
   </si>
   <si>
+    <t xml:space="preserve">Neural Networks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Computational models inspired by the human brain, capable of learning complex patterns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Highly flexible, can model complex non-linear relationships, state-of-the-art in many domains</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Requires large amounts of data and computational resources, can be prone to overfitting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image and speech recognition, natural language processing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convolutional Neural Networks (CNNs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specialized neural networks for grid-like data, especially images</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excellent performance on image data, automatically detects important features</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Requires large labeled datasets, computationally expensive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image classification, object detection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recurrent Neural Networks (RNNs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neural networks with loops, suitable for sequential data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can handle sequences of varying lengths, remembers previous inputs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prone to vanishing and exploding gradients, difficult to train</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time series forecasting, language modeling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Long Short-Term Memory (LSTM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Special type of RNN designed to overcome vanishing gradient problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good at capturing long-term dependencies, effective for sequential data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Computationally expensive, requires large datasets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speech recognition, machine translation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reinforcement Learning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Learning through interactions with an environment to maximize cumulative reward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capable of learning complex behaviors, adapts to changing environments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Requires large amounts of data, can be unstable and difficult to design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robotics, game playing</t>
+  </si>
+  <si>
     <t xml:space="preserve">K-Means Clustering</t>
   </si>
   <si>
+    <t xml:space="preserve">Unsupervised Learning</t>
+  </si>
+  <si>
     <t xml:space="preserve">Partition-based clustering algorithm, groups data into k clusters</t>
   </si>
   <si>
@@ -193,7 +279,7 @@
     <t xml:space="preserve">Density-based clustering, identifies clusters based on density of data points</t>
   </si>
   <si>
-    <t xml:space="preserve">Can find arbitrarily shaped clusters, does not require specifying the number of clusters</t>
+    <t xml:space="preserve">Does not require specifying the number of clusters</t>
   </si>
   <si>
     <t xml:space="preserve">Sensitive to choice of parameters, can struggle with varying densities</t>
@@ -217,79 +303,385 @@
     <t xml:space="preserve">Data compression, noise reduction</t>
   </si>
   <si>
-    <t xml:space="preserve">Neural Networks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Computational models inspired by the human brain, capable of learning complex patterns</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Highly flexible, can model complex non-linear relationships, state-of-the-art in many domains</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Requires large amounts of data and computational resources, can be prone to overfitting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Image and speech recognition, natural language processing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Convolutional Neural Networks (CNNs)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specialized neural networks for grid-like data, especially images</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Excellent performance on image data, automatically detects important features</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Requires large labeled datasets, computationally expensive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Image classification, object detection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recurrent Neural Networks (RNNs)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neural networks with loops, suitable for sequential data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Can handle sequences of varying lengths, remembers previous inputs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prone to vanishing and exploding gradients, difficult to train</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Time series forecasting, language modeling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Long Short-Term Memory (LSTM)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Special type of RNN designed to overcome vanishing gradient problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Good at capturing long-term dependencies, effective for sequential data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Computationally expensive, requires large datasets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Speech recognition, machine translation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reinforcement Learning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Learning through interactions with an environment to maximize cumulative reward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Capable of learning complex behaviors, adapts to changing environments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Requires large amounts of data, can be unstable and difficult to design</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Robotics, game playing</t>
+    <t xml:space="preserve">Paper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GBDT (XGBoost)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tianqi Chen et al., KDD 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gradient boosting framework that uses tree boosting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High performance, flexible, handles missing data well</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Computationally expensive, requires careful parameter tuning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Predictive modeling, classification, regression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GBDT (LightGBM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guolin Ke et al., NIPS 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optimized for speed and efficiency, supports parallel learning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fast, efficient on large datasets, lower memory usage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sensitive to overfitting, requires proper parameter tuning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Large-scale data analysis, ranking problems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GBDT (CatBoost)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liudmila Prokhorenkova et al., NIPS 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handles categorical features automatically, symmetric tree structure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handles categorical data well, robust to overfitting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complex implementation, slower training times</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tabular data with categorical features, classification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MLP (PyTorch)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feedforward neural network with multiple layers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flexible, can model complex relationships</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prone to overfitting, requires large datasets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image recognition, financial forecasting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LSTM (PyTorch)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sepp Hochreiter et al., Neural Computation 1997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recurrent neural network designed to handle long-term dependencies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Captures long-term dependencies well, effective for sequential data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Computationally expensive, sensitive to hyperparameters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time series prediction, speech recognition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRU (PyTorch)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyunghyun Cho et al., 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simplified version of LSTM with fewer parameters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faster training, performs well on sequential data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May not capture dependencies as well as LSTM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sequential data modeling, language modeling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALSTM (PyTorch)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yao Qin et al., IJCAI 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attention-based LSTM, focuses on relevant parts of input sequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Improved performance on long sequences, interpretable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Computationally intensive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Financial forecasting, sequence modeling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GATs (PyTorch)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petar Velickovic et al., 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graph Attention Networks, apply attention mechanism to graph-structured data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Captures complex relationships in graph data, scalable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complex implementation, requires large datasets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Social network analysis, recommender systems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SFM (PyTorch)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liheng Zhang et al., KDD 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sequential-based Factorization Machines, capture long-term dependencies in sequential data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handles large-scale sparse data well, interpretable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sensitive to hyperparameters, computationally expensive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recommender systems, click prediction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TFT (TensorFlow)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bryan Lim et al., International Journal of Forecasting 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temporal Fusion Transformers, designed for multi-horizon forecasting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handles temporal patterns well, interpretable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time series forecasting, demand forecasting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TabNet (PyTorch)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sercan O. Arik et al., AAAI 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uses attention mechanism for interpretability and performance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interpretable, handles tabular data well</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Requires large datasets, computationally intensive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tabular data classification, regression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DoubleEnsemble (LightGBM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chuheng Zhang et al., ICDM 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combines multiple models to improve performance and robustness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reduces overfitting, improves model stability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Computationally expensive, complex implementation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Predictive modeling, financial forecasting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCTS (PyTorch)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xueqing Wu et al., ICML 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time-series Cross-domain Transfer, transfers knowledge between domains</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Improves performance on small datasets, generalizable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complex implementation, requires careful tuning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cross-domain time series forecasting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transformer (PyTorch)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ashish Vaswani et al., NeurIPS 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Self-attention mechanism, handles sequential data well</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Efficient, captures long-range dependencies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Requires large datasets, computationally expensive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natural language processing, time series prediction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Localformer (PyTorch)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juyong Jiang et al., -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Local attention mechanism, focuses on local patterns in data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Efficient, captures local dependencies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relatively new, less mature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sequential data analysis, financial forecasting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRA (PyTorch)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hengxu Dong et al., KDD 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transformer-based Relational Attention, captures relational dependencies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handles relational data well, interpretable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recommender systems, relational data analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCN (PyTorch)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shaojie Bai et al., 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temporal Convolutional Networks, convolutional approach to sequence modeling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Captures long-term dependencies, parallelizable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sequential data analysis, time series forecasting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADARNN (PyTorch)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YunTao Du et al., 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adaptive Recurrent Neural Networks, dynamically adapts to different time steps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flexible, captures dynamic patterns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time series forecasting, sequential data modeling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADD (PyTorch)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hongshun Tang et al., 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attention-based Dynamic Decomposition, captures dynamic patterns in data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flexible, interpretable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complex implementation, computationally expensive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time series forecasting, anomaly detection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IGMTF (PyTorch)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wentao Xu et al., 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integrated Graph and Multi-task Fusion, combines graph and multi-task learning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Captures complex relationships, generalizable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cross-domain analysis, multi-task learning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIST (PyTorch)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hierarchical Interaction Transformer, models hierarchical relationships</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Captures hierarchical patterns, interpretable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hierarchical data analysis, time series forecasting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KRNN (PyTorch)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kernel-based Recurrent Neural Networks, integrates kernel methods with RNNs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flexible, captures complex dependencies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sequential data modeling, financial forecasting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sandwich (PyTorch)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stacks multiple models in a sandwich structure for improved performance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reduces overfitting, improves robustness</t>
   </si>
 </sst>
 </file>
@@ -304,6 +696,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -323,13 +716,16 @@
     <font>
       <b val="true"/>
       <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -381,25 +777,37 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -414,28 +822,229 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>158040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>355680</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>110160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="Image 3" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="11202120"/>
+          <a:ext cx="10528920" cy="7429680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>154800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>872280</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>154440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Image 5" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="8435160"/>
+          <a:ext cx="5520960" cy="2437920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>612360</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>69120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>388800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>324000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12551760" y="231840"/>
+          <a:ext cx="7904160" cy="2801880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>29160</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>372960</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>119520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Image 4" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12781080" y="3164400"/>
+          <a:ext cx="10097640" cy="7010280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>36000</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>37800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Image 2" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="6538320" cy="8490960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="36.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="34.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="31.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="28.62"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="6" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="31.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="32.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="27.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="18.89"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -451,294 +1060,348 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="36.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="36.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="36.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="36.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="36.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="48.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="36.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="B8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="36.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="36.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="B10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="36.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="B11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="36.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="B12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="36.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="B13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="36.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="B14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E14" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="36.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="B15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E15" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="36.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D16" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="36.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D17" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="B17" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D17" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="36.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="B18" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>89</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -749,5 +1412,558 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F24"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="24.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="25.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="28.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="29.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="4" width="34.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="27.09"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="4" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId1" display="Kyunghyun Cho et al., 2014"/>
+    <hyperlink ref="B9" r:id="rId2" display="Petar Velickovic et al., 2017"/>
+    <hyperlink ref="B11" r:id="rId3" display="Bryan Lim et al., International Journal of Forecasting 2019"/>
+    <hyperlink ref="B12" r:id="rId4" display="Sercan O. Arik et al., AAAI 2019"/>
+    <hyperlink ref="B13" r:id="rId5" display="Chuheng Zhang et al., ICDM 2020"/>
+    <hyperlink ref="B15" r:id="rId6" display="Ashish Vaswani et al., NeurIPS 2017"/>
+    <hyperlink ref="B16" r:id="rId7" display="Juyong Jiang et al., -"/>
+    <hyperlink ref="B18" r:id="rId8" display="Shaojie Bai et al., 2018"/>
+    <hyperlink ref="B19" r:id="rId9" display="YunTao Du et al., 2021"/>
+    <hyperlink ref="B20" r:id="rId10" display="Hongshun Tang et al., 2020"/>
+    <hyperlink ref="B21" r:id="rId11" display="Wentao Xu et al., 2021"/>
+    <hyperlink ref="B22" r:id="rId12" display="Wentao Xu et al., 2021"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId13"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O25" activeCellId="0" sqref="O25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>